--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N2">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O2">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P2">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q2">
-        <v>0.09425800578888889</v>
+        <v>0.0212136764888889</v>
       </c>
       <c r="R2">
-        <v>0.8483220521</v>
+        <v>0.1909230884000001</v>
       </c>
       <c r="S2">
-        <v>0.05795977836972956</v>
+        <v>0.007990617873692603</v>
       </c>
       <c r="T2">
-        <v>0.05795977836972955</v>
+        <v>0.007990617873692601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N3">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O3">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P3">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q3">
-        <v>0.08257757667955556</v>
+        <v>0.1041843321844445</v>
       </c>
       <c r="R3">
-        <v>0.743198190116</v>
+        <v>0.9376589896600002</v>
       </c>
       <c r="S3">
-        <v>0.05077741675732102</v>
+        <v>0.03924341861948293</v>
       </c>
       <c r="T3">
-        <v>0.05077741675732101</v>
+        <v>0.03924341861948292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H4">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N4">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q4">
-        <v>0.3290388482912223</v>
+        <v>0.9138775390233335</v>
       </c>
       <c r="R4">
-        <v>2.961349634621</v>
+        <v>8.224897851210001</v>
       </c>
       <c r="S4">
-        <v>0.202327840085053</v>
+        <v>0.3442329386662829</v>
       </c>
       <c r="T4">
-        <v>0.202327840085053</v>
+        <v>0.3442329386662829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.204641</v>
       </c>
       <c r="I5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N5">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O5">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P5">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q5">
-        <v>0.1274376329</v>
+        <v>0.02273291416000001</v>
       </c>
       <c r="R5">
-        <v>1.1469386961</v>
+        <v>0.20459622744</v>
       </c>
       <c r="S5">
-        <v>0.07836211785967623</v>
+        <v>0.008562873592569336</v>
       </c>
       <c r="T5">
-        <v>0.07836211785967621</v>
+        <v>0.008562873592569334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.204641</v>
       </c>
       <c r="I6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,13 +803,13 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N6">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O6">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P6">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q6">
         <v>0.111645592484</v>
@@ -818,10 +818,10 @@
         <v>1.004810332356</v>
       </c>
       <c r="S6">
-        <v>0.06865150330914999</v>
+        <v>0.04205387346643644</v>
       </c>
       <c r="T6">
-        <v>0.06865150330914997</v>
+        <v>0.04205387346643643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.204641</v>
       </c>
       <c r="I7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N7">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q7">
-        <v>0.4448633472290001</v>
+        <v>0.9793257504540001</v>
       </c>
       <c r="R7">
-        <v>4.003770125061</v>
+        <v>8.813931754086001</v>
       </c>
       <c r="S7">
-        <v>0.2735489764971064</v>
+        <v>0.3688855088293574</v>
       </c>
       <c r="T7">
-        <v>0.2735489764971064</v>
+        <v>0.3688855088293573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H8">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I8">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J8">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N8">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O8">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P8">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q8">
-        <v>0.08132139993333332</v>
+        <v>0.01024361653333333</v>
       </c>
       <c r="R8">
-        <v>0.7318925993999998</v>
+        <v>0.09219254880000001</v>
       </c>
       <c r="S8">
-        <v>0.05000498660462589</v>
+        <v>0.003858493147351357</v>
       </c>
       <c r="T8">
-        <v>0.05000498660462589</v>
+        <v>0.003858493147351357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H9">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I9">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J9">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N9">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O9">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P9">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q9">
-        <v>0.07124407186933332</v>
+        <v>0.05030831634666667</v>
       </c>
       <c r="R9">
-        <v>0.6411966468239999</v>
+        <v>0.45277484712</v>
       </c>
       <c r="S9">
-        <v>0.04380838084938991</v>
+        <v>0.0189497813830436</v>
       </c>
       <c r="T9">
-        <v>0.04380838084938991</v>
+        <v>0.0189497813830436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H10">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I10">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J10">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N10">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P10">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q10">
-        <v>0.2838793325993333</v>
+        <v>0.44129130908</v>
       </c>
       <c r="R10">
-        <v>2.554913993394</v>
+        <v>3.97162178172</v>
       </c>
       <c r="S10">
-        <v>0.174558999667948</v>
+        <v>0.1662224944217835</v>
       </c>
       <c r="T10">
-        <v>0.1745589996679481</v>
+        <v>0.1662224944217835</v>
       </c>
     </row>
   </sheetData>
